--- a/策划案&需求/1.2.xlsx
+++ b/策划案&需求/1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\需求文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food\TheMirrorSeries_Plan\策划案&amp;需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1114,72 +1114,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为初始速度，m，n，b，c为常数，t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为碰撞次数，t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为时间；</t>
-    </r>
+    <t>过渡界面，主要用于程序加载；功能开发上与匹配队列整合，不需额外交互设计；</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1268,12 +1203,109 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>+c)</t>
+      <t>+c)+j*t</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>过渡界面，主要用于程序加载；功能开发上与匹配队列整合，不需额外交互设计；</t>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为初始速度，m，n，b，c，j为常数，t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为碰撞次数，t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为时间，t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为当前死亡人数；</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2272,6 +2304,66 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,87 +2373,39 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2372,18 +2416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4714,248 +4746,248 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
@@ -5006,97 +5038,129 @@
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="86" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="89" t="s">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="93" t="s">
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
@@ -5109,38 +5173,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5151,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5976,7 +6008,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E146" s="46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -6339,7 +6371,7 @@
     </row>
     <row r="254" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E254" s="46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="2:19" x14ac:dyDescent="0.15">
@@ -6434,10 +6466,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -6450,58 +6482,58 @@
       <c r="G2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -6989,16 +7021,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7029,10 +7061,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7045,54 +7077,54 @@
       <c r="G2" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7378,10 +7410,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7399,10 +7431,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -7410,8 +7442,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7419,8 +7451,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -7428,8 +7460,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>

--- a/策划案&需求/1.2.xlsx
+++ b/策划案&需求/1.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <definedName name="AllConditions">[1]枚举类别!$B$23:$B$29</definedName>
     <definedName name="AllTriggers">[1]枚举类别!$B$3:$B$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="279">
   <si>
     <t>项目组别</t>
   </si>
@@ -1307,6 +1307,14 @@
       <t>为当前死亡人数；</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源暂选网图</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期调整更新较多</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2304,18 +2312,81 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2328,72 +2399,21 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,18 +2424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4746,248 +4754,248 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
@@ -5038,129 +5046,97 @@
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="69" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="78" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79" t="s">
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="69" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72" t="s">
+      <c r="F25" s="92"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="74"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
@@ -5173,6 +5149,38 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5183,7 +5191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
@@ -6466,10 +6474,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -6482,58 +6490,58 @@
       <c r="G2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7021,16 +7029,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7042,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7061,10 +7069,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7077,54 +7085,54 @@
       <c r="G2" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7220,8 +7228,12 @@
       <c r="J10" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="38"/>
+      <c r="K10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="47">
@@ -7244,7 +7256,9 @@
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
+      <c r="L11" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="38">
@@ -7269,7 +7283,9 @@
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="L12" s="38">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B13" s="38">
@@ -7296,7 +7312,9 @@
         <v>204</v>
       </c>
       <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="L13" s="38">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="38">
@@ -7320,8 +7338,12 @@
       <c r="J14" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="K14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="38">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="62"/>
@@ -7410,10 +7432,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7431,10 +7453,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -7442,8 +7464,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7451,8 +7473,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -7460,8 +7482,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>

--- a/策划案&需求/1.2.xlsx
+++ b/策划案&需求/1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food\TheMirrorSeries_Plan\策划案&amp;需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\TheMirrorSeries_Plan\策划案&amp;需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1262,7 +1262,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为碰撞次数，t</t>
+      <t>为该光线碰撞次数，t</t>
     </r>
     <r>
       <rPr>
@@ -1283,7 +1283,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为时间，t</t>
+      <t>为该光线在场时间，t</t>
     </r>
     <r>
       <rPr>
@@ -2304,18 +2304,81 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2328,72 +2391,21 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,18 +2416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4746,248 +4746,248 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
@@ -5038,129 +5038,97 @@
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="69" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="78" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79" t="s">
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="69" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72" t="s">
+      <c r="F25" s="92"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="74"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
@@ -5173,6 +5141,38 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5184,7 +5184,7 @@
   <dimension ref="A1:V255"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+      <selection activeCell="K258" sqref="K258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6466,10 +6466,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -6482,58 +6482,58 @@
       <c r="G2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7021,16 +7021,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7061,10 +7061,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7077,54 +7077,54 @@
       <c r="G2" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7410,10 +7410,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7431,10 +7431,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -7442,8 +7442,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7451,8 +7451,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -7460,8 +7460,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>

--- a/策划案&需求/1.2.xlsx
+++ b/策划案&需求/1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\TheMirrorSeries_Plan\策划案&amp;需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food\TheMirrorSeries_Plan\策划案&amp;需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1262,7 +1262,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为该光线碰撞次数，t</t>
+      <t>为碰撞次数，t</t>
     </r>
     <r>
       <rPr>
@@ -1283,7 +1283,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为该光线在场时间，t</t>
+      <t>为时间，t</t>
     </r>
     <r>
       <rPr>
@@ -2304,6 +2304,66 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2313,87 +2373,39 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,18 +2416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4746,248 +4746,248 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
@@ -5038,97 +5038,129 @@
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="86" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="89" t="s">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="93" t="s">
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
@@ -5141,38 +5173,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5184,7 +5184,7 @@
   <dimension ref="A1:V255"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K258" sqref="K258"/>
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6466,10 +6466,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -6482,58 +6482,58 @@
       <c r="G2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7021,16 +7021,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7061,10 +7061,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7077,54 +7077,54 @@
       <c r="G2" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7410,10 +7410,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7431,10 +7431,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -7442,8 +7442,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7451,8 +7451,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -7460,8 +7460,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>

--- a/策划案&需求/1.2.xlsx
+++ b/策划案&需求/1.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food\TheMirrorSeries_Plan\策划案&amp;需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\TheMirrorSeries_Plan\策划案&amp;需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -1219,6 +1219,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>美术资源暂选网图</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期调整更新较多</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>V</t>
     </r>
@@ -1262,7 +1270,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为碰撞次数，t</t>
+      <t>为该光线碰撞次数，t</t>
     </r>
     <r>
       <rPr>
@@ -1283,7 +1291,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为时间，t</t>
+      <t>为该光线在场时间，t</t>
     </r>
     <r>
       <rPr>
@@ -1307,14 +1315,6 @@
       <t>为当前死亡人数；</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源暂选网图</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>后期调整更新较多</t>
-    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2312,6 +2312,66 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,87 +2381,39 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2412,18 +2424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4754,248 +4754,248 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
@@ -5046,97 +5046,129 @@
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="86" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="89" t="s">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="93" t="s">
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
@@ -5149,38 +5181,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5191,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="254" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E254" s="46" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="2:19" x14ac:dyDescent="0.15">
@@ -6474,10 +6474,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -6490,58 +6490,58 @@
       <c r="G2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7029,16 +7029,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7050,7 +7050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -7069,10 +7069,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7085,54 +7085,54 @@
       <c r="G2" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7229,7 +7229,7 @@
         <v>173</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L10" s="38">
         <v>1.5</v>
@@ -7339,7 +7339,7 @@
         <v>180</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L14" s="38">
         <v>4</v>
@@ -7432,10 +7432,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="60" t="s">
         <v>19</v>
       </c>
@@ -7453,10 +7453,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -7464,8 +7464,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7473,8 +7473,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -7482,8 +7482,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
